--- a/content/release/anvil/AnVILSubmissionDataFindabilitySubsetSchema.example.xlsx
+++ b/content/release/anvil/AnVILSubmissionDataFindabilitySubsetSchema.example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>biosample_id</t>
   </si>
@@ -75,13 +75,52 @@
     <t>blood</t>
   </si>
   <si>
+    <t>UBERON:0000178</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ebi.ac.uk/ols4/ontologies/uberon</t>
+    </r>
+  </si>
+  <si>
     <t>abnormal cell</t>
   </si>
   <si>
-    <t>Blood</t>
+    <t>CL:0001061</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/CL_0001061</t>
+    </r>
   </si>
   <si>
     <t>leukemia</t>
+  </si>
+  <si>
+    <t>MONDO_0005059</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/MONDO_0005059</t>
+    </r>
   </si>
   <si>
     <t>years</t>
@@ -190,7 +229,7 @@
       <rPr>
         <u val="single"/>
         <sz val="13"/>
-        <color indexed="12"/>
+        <color indexed="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>gs://fc-secure-example-bucket-4f8e-a239-370aa6369c0a/my_folder/example_exome_IDT-Exome.cnv.vcf.gz</t>
@@ -237,6 +276,20 @@
   </si>
   <si>
     <t>Acute myelomonocytic leukemia</t>
+  </si>
+  <si>
+    <t>MONDO:0018874</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/MONDO_0018874</t>
+    </r>
   </si>
   <si>
     <t>activity_id</t>
@@ -306,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -328,14 +381,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="13"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="13"/>
-      <color indexed="12"/>
+      <color indexed="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -348,7 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -407,7 +466,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -440,9 +499,9 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff1f1f1f"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1512,14 +1571,17 @@
   <cols>
     <col min="1" max="1" width="11.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.6719" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.3516" style="1" customWidth="1"/>
     <col min="15" max="17" width="8.85156" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85156" style="1" customWidth="1"/>
@@ -1585,25 +1647,37 @@
       <c r="B2" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="E2" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>23</v>
+      </c>
       <c r="H2" t="s" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>26</v>
+      </c>
       <c r="N2" t="s" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5">
         <v>58</v>
@@ -1612,7 +1686,7 @@
         <v>58</v>
       </c>
       <c r="Q2" t="s" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
@@ -1768,6 +1842,11 @@
       <c r="Q10" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="https://www.ebi.ac.uk/ols4/ontologies/uberon"/>
+    <hyperlink ref="G2" r:id="rId2" location="" tooltip="" display="http://purl.obolibrary.org/obo/CL_0001061"/>
+    <hyperlink ref="M2" r:id="rId3" location="" tooltip="" display="http://purl.obolibrary.org/obo/MONDO_0005059"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -1792,72 +1871,72 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" t="s" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" t="s" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" t="s" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2027,31 +2106,31 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -2073,28 +2152,28 @@
     </row>
     <row r="2" ht="15.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5">
         <v>994</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s" s="3">
         <v>17</v>
@@ -2377,40 +2456,40 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2429,19 +2508,23 @@
     </row>
     <row r="2" ht="15.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5">
         <v>58</v>
@@ -2450,7 +2533,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5">
         <v>56</v>
@@ -2698,6 +2781,9 @@
       <c r="Z10" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="http://purl.obolibrary.org/obo/MONDO_0018874"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -2728,44 +2814,44 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="15.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" t="s" s="3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" t="s" s="3">
@@ -2773,7 +2859,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" t="s" s="3">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
@@ -2891,36 +2977,36 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" ht="15.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
